--- a/ListagemDeProdutosDaLojaVirtual.xlsx
+++ b/ListagemDeProdutosDaLojaVirtual.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID do Produto</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Estoque do Produto</t>
   </si>
   <si>
-    <t>Quantidade do Produto</t>
-  </si>
-  <si>
     <t>Avaliação do Produto</t>
   </si>
   <si>
@@ -67,64 +64,57 @@
     <t>Categoria do Produto</t>
   </si>
   <si>
-    <t>d72c7a12-3236-4489-bac1-2fa9b9bba59a</t>
-  </si>
-  <si>
-    <t>Teste de produto</t>
-  </si>
-  <si>
-    <t>Primeira descrição</t>
-  </si>
-  <si>
-    <t>Segunda descrição</t>
-  </si>
-  <si>
-    <t>Terceira descrição</t>
-  </si>
-  <si>
-    <t>Quarta descrição</t>
-  </si>
-  <si>
-    <t>Quinta descrição</t>
-  </si>
-  <si>
-    <t>Sexta descrição</t>
+    <t>791c3428-0973-4429-a6e0-735247c80e88</t>
+  </si>
+  <si>
+    <t>Celular branco</t>
+  </si>
+  <si>
+    <t>fgfgfgfgfgfgfgfgfgfgf</t>
+  </si>
+  <si>
+    <t>gfffffffddddddddd</t>
+  </si>
+  <si>
+    <t>trtrtrrrtttt</t>
+  </si>
+  <si>
+    <t>rtbfbbbbbbbbbbbbbbbbbbb</t>
+  </si>
+  <si>
+    <t>tyyuyuyyyuyuy</t>
+  </si>
+  <si>
+    <t>ooiikikiiki</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>665555555555</t>
+  </si>
+  <si>
+    <t>7676</t>
+  </si>
+  <si>
+    <t>bom</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>d9abaffb-a5ad-4beb-89c1-69e85e8d7a47</t>
   </si>
   <si>
     <t/>
   </si>
-  <si>
-    <t>1900.1015</t>
-  </si>
-  <si>
-    <t>Muito bom</t>
-  </si>
-  <si>
-    <t>0444ea9a-6753-476e-9814-636d9cde2b2a</t>
-  </si>
   <si/>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"/>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"/>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"/>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"/>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve"/>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -169,13 +159,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:17">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -227,73 +217,67 @@
       <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="L2" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
